--- a/ベースマシン接続一覧表.xlsx
+++ b/ベースマシン接続一覧表.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\gizmo\Documents\Develop\BSM02\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="45" windowWidth="18195" windowHeight="11445"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="273">
   <si>
     <t>ベースマシン接続一覧表</t>
     <rPh sb="6" eb="8">
@@ -1057,18 +1062,38 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2017.04.10</t>
+    <t>2018.03.22</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8_1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8_2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GND</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SyncIn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RCA</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1351,6 +1376,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1397,7 +1430,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1429,9 +1462,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1463,6 +1497,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1638,19 +1673,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R170"/>
+  <dimension ref="A1:R172"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
       <pane ySplit="10260" topLeftCell="A75"/>
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A174" sqref="A174"/>
       <selection pane="bottomLeft" activeCell="F82" sqref="F82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.625" customWidth="1"/>
     <col min="2" max="2" width="5.375" customWidth="1"/>
@@ -1662,27 +1697,27 @@
     <col min="12" max="12" width="10.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A4" s="17" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B5" s="17" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B6" s="17" t="s">
         <v>2</v>
       </c>
@@ -1711,7 +1746,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B7">
         <v>1</v>
       </c>
@@ -1739,7 +1774,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B8">
         <v>3</v>
       </c>
@@ -1767,7 +1802,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B9">
         <v>5</v>
       </c>
@@ -1788,7 +1823,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B10">
         <v>7</v>
       </c>
@@ -1812,7 +1847,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B11">
         <v>9</v>
       </c>
@@ -1832,7 +1867,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B12">
         <v>11</v>
       </c>
@@ -1849,7 +1884,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B13">
         <v>13</v>
       </c>
@@ -1877,7 +1912,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B14">
         <v>15</v>
       </c>
@@ -1907,7 +1942,7 @@
       <c r="O14" s="1"/>
       <c r="R14" s="1"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B15">
         <v>17</v>
       </c>
@@ -1930,7 +1965,7 @@
       <c r="O15" s="1"/>
       <c r="R15" s="1"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B16">
         <v>19</v>
       </c>
@@ -1951,7 +1986,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="17" spans="2:12">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B17">
         <v>21</v>
       </c>
@@ -1979,7 +2014,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="18" spans="2:12">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B18">
         <v>23</v>
       </c>
@@ -2007,7 +2042,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="19" spans="2:12">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B19">
         <v>25</v>
       </c>
@@ -2024,7 +2059,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="2:12">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B20">
         <v>27</v>
       </c>
@@ -2048,7 +2083,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="2:12">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B21">
         <v>29</v>
       </c>
@@ -2072,7 +2107,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="2:12">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B22">
         <v>31</v>
       </c>
@@ -2093,7 +2128,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="2:12">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B23">
         <v>33</v>
       </c>
@@ -2114,7 +2149,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="2:12">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B24">
         <v>35</v>
       </c>
@@ -2142,7 +2177,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="2:12">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B25">
         <v>37</v>
       </c>
@@ -2170,12 +2205,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="2:12">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B27" s="17" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="28" spans="2:12">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B28" s="17" t="s">
         <v>2</v>
       </c>
@@ -2204,7 +2239,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="2:12">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B29">
         <v>1</v>
       </c>
@@ -2232,7 +2267,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="2:12">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B30">
         <v>3</v>
       </c>
@@ -2260,7 +2295,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="2:12">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B31">
         <v>5</v>
       </c>
@@ -2288,7 +2323,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="32" spans="2:12">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B32">
         <v>7</v>
       </c>
@@ -2302,7 +2337,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="33" spans="2:12">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B33">
         <v>9</v>
       </c>
@@ -2323,7 +2358,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="2:12">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B34">
         <v>11</v>
       </c>
@@ -2351,7 +2386,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="35" spans="2:12">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B35">
         <v>13</v>
       </c>
@@ -2381,7 +2416,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="36" spans="2:12">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B36">
         <v>15</v>
       </c>
@@ -2409,7 +2444,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="2:12">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B37">
         <v>17</v>
       </c>
@@ -2430,7 +2465,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="2:12">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B38">
         <v>19</v>
       </c>
@@ -2451,7 +2486,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="2:12">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B39">
         <v>21</v>
       </c>
@@ -2479,7 +2514,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="2:12">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B40">
         <v>23</v>
       </c>
@@ -2507,7 +2542,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="41" spans="2:12">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B41">
         <v>25</v>
       </c>
@@ -2535,7 +2570,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="2:12">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B42">
         <v>27</v>
       </c>
@@ -2562,7 +2597,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="2:12">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B43">
         <v>29</v>
       </c>
@@ -2590,7 +2625,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="2:12">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B44">
         <v>31</v>
       </c>
@@ -2611,7 +2646,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="45" spans="2:12">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B45">
         <v>33</v>
       </c>
@@ -2639,7 +2674,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="46" spans="2:12">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B46">
         <v>35</v>
       </c>
@@ -2659,7 +2694,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="2:12">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B47">
         <v>37</v>
       </c>
@@ -2679,12 +2714,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" s="17" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B50" s="17" t="s">
         <v>2</v>
       </c>
@@ -2699,7 +2734,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B51" s="33" t="s">
         <v>194</v>
       </c>
@@ -2711,7 +2746,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B52" s="33" t="s">
         <v>195</v>
       </c>
@@ -2723,7 +2758,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B53" s="33" t="s">
         <v>196</v>
       </c>
@@ -2735,7 +2770,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B54" s="33" t="s">
         <v>197</v>
       </c>
@@ -2747,7 +2782,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B55" s="33" t="s">
         <v>198</v>
       </c>
@@ -2756,7 +2791,7 @@
       </c>
       <c r="D55" s="13"/>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B56" s="33" t="s">
         <v>199</v>
       </c>
@@ -2764,7 +2799,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B57" s="33" t="s">
         <v>206</v>
       </c>
@@ -2773,7 +2808,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B58" s="33" t="s">
         <v>207</v>
       </c>
@@ -2785,7 +2820,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B59" s="33" t="s">
         <v>208</v>
       </c>
@@ -2797,7 +2832,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B60" s="33" t="s">
         <v>209</v>
       </c>
@@ -2809,7 +2844,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B61" s="33" t="s">
         <v>210</v>
       </c>
@@ -2821,7 +2856,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B62" s="33" t="s">
         <v>211</v>
       </c>
@@ -2833,7 +2868,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B63" s="33" t="s">
         <v>212</v>
       </c>
@@ -2845,7 +2880,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B64" s="33" t="s">
         <v>213</v>
       </c>
@@ -2857,7 +2892,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B65" s="33" t="s">
         <v>214</v>
       </c>
@@ -2869,7 +2904,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B66" s="33" t="s">
         <v>215</v>
       </c>
@@ -2881,7 +2916,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B67" s="33" t="s">
         <v>216</v>
       </c>
@@ -2894,7 +2929,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B68" s="33" t="s">
         <v>217</v>
       </c>
@@ -2907,7 +2942,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B69" s="33" t="s">
         <v>218</v>
       </c>
@@ -2920,7 +2955,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B70" s="33" t="s">
         <v>219</v>
       </c>
@@ -2932,7 +2967,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B71" s="33" t="s">
         <v>220</v>
       </c>
@@ -2944,15 +2979,15 @@
         <v>230</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B72" s="33"/>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A73" s="17" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B74" s="17" t="s">
         <v>2</v>
       </c>
@@ -2967,7 +3002,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A75" s="17"/>
       <c r="B75" s="32" t="s">
         <v>194</v>
@@ -2980,7 +3015,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A76" s="17"/>
       <c r="B76" s="32" t="s">
         <v>195</v>
@@ -2993,7 +3028,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A77" s="17"/>
       <c r="B77" s="32" t="s">
         <v>196</v>
@@ -3006,7 +3041,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78" s="17"/>
       <c r="B78" s="32" t="s">
         <v>197</v>
@@ -3019,7 +3054,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A79" s="17"/>
       <c r="B79" s="32" t="s">
         <v>198</v>
@@ -3029,7 +3064,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80" s="17"/>
       <c r="B80" s="32" t="s">
         <v>238</v>
@@ -3042,7 +3077,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="81" spans="1:12">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A81" s="17"/>
       <c r="B81" s="32" t="s">
         <v>247</v>
@@ -3051,834 +3086,820 @@
         <v>248</v>
       </c>
     </row>
-    <row r="82" spans="1:12">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A82" s="17"/>
       <c r="B82" s="32" t="s">
-        <v>249</v>
-      </c>
-      <c r="C82" s="14" t="s">
-        <v>257</v>
-      </c>
-      <c r="D82" s="5"/>
+        <v>268</v>
+      </c>
+      <c r="D82" s="2"/>
       <c r="E82" t="s">
-        <v>258</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12">
+        <v>272</v>
+      </c>
+      <c r="F82" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A83" s="17"/>
       <c r="B83" s="32" t="s">
-        <v>250</v>
-      </c>
-      <c r="C83" s="14" t="s">
-        <v>231</v>
-      </c>
-      <c r="D83" s="34"/>
+        <v>269</v>
+      </c>
+      <c r="D83" s="3"/>
       <c r="E83" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="F83" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A84" s="17"/>
       <c r="B84" s="32" t="s">
-        <v>213</v>
+        <v>249</v>
       </c>
       <c r="C84" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="D84" s="2"/>
+      <c r="D84" s="5"/>
       <c r="E84" t="s">
-        <v>265</v>
-      </c>
-      <c r="F84" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12">
+        <v>258</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A85" s="17"/>
       <c r="B85" s="32" t="s">
-        <v>214</v>
+        <v>250</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12">
+        <v>231</v>
+      </c>
+      <c r="D85" s="34"/>
+      <c r="E85" t="s">
+        <v>259</v>
+      </c>
+      <c r="F85" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B86" s="32" t="s">
-        <v>252</v>
+        <v>213</v>
       </c>
       <c r="C86" s="14" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="87" spans="1:12">
+      <c r="D86" s="2"/>
+      <c r="E86" t="s">
+        <v>265</v>
+      </c>
+      <c r="F86" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B87" s="32" t="s">
-        <v>251</v>
+        <v>214</v>
       </c>
       <c r="C87" s="14" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="88" spans="1:12">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B88" s="32" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C88" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="D88" s="8"/>
-      <c r="E88" t="s">
-        <v>265</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12">
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B89" s="32" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C89" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="D89" s="12"/>
-      <c r="E89" t="s">
-        <v>265</v>
-      </c>
-      <c r="F89" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12">
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B90" s="32" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C90" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="D90" s="13"/>
-    </row>
-    <row r="91" spans="1:12">
+      <c r="D90" s="8"/>
+      <c r="E90" t="s">
+        <v>265</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B91" s="32" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C91" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="D91" s="13"/>
-    </row>
-    <row r="92" spans="1:12">
-      <c r="B92" s="32"/>
-    </row>
-    <row r="93" spans="1:12">
-      <c r="A93" s="17" t="s">
+      <c r="D91" s="12"/>
+      <c r="E91" t="s">
+        <v>265</v>
+      </c>
+      <c r="F91" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B92" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="C92" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="D92" s="13"/>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B93" s="32" t="s">
+        <v>256</v>
+      </c>
+      <c r="C93" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="D93" s="13"/>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B94" s="32"/>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A95" s="17" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="94" spans="1:12">
-      <c r="B94" s="17" t="s">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B96" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C94" s="17" t="s">
+      <c r="C96" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="D94" s="17"/>
-      <c r="E94" s="17" t="s">
+      <c r="D96" s="17"/>
+      <c r="E96" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F94" s="17" t="s">
+      <c r="F96" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="G94" s="17"/>
-      <c r="H94" s="17"/>
-      <c r="I94" s="17"/>
-      <c r="J94" s="17"/>
-      <c r="K94" s="17"/>
-      <c r="L94" s="17"/>
-    </row>
-    <row r="95" spans="1:12" s="21" customFormat="1">
-      <c r="B95" s="21">
+      <c r="G96" s="17"/>
+      <c r="H96" s="17"/>
+      <c r="I96" s="17"/>
+      <c r="J96" s="17"/>
+      <c r="K96" s="17"/>
+      <c r="L96" s="17"/>
+    </row>
+    <row r="97" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B97" s="21">
         <v>1</v>
       </c>
-      <c r="C95" s="37" t="s">
+      <c r="C97" s="37" t="s">
         <v>165</v>
       </c>
-      <c r="D95" s="22"/>
-      <c r="E95" s="21" t="s">
+      <c r="D97" s="22"/>
+      <c r="E97" s="21" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="96" spans="1:12" s="21" customFormat="1">
-      <c r="B96" s="21">
+    <row r="98" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B98" s="21">
         <v>2</v>
       </c>
-      <c r="C96" s="37" t="s">
+      <c r="C98" s="37" t="s">
         <v>166</v>
       </c>
-      <c r="D96" s="23"/>
-      <c r="E96" s="21" t="s">
+      <c r="D98" s="23"/>
+      <c r="E98" s="21" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="97" spans="1:12" s="21" customFormat="1">
-      <c r="B97" s="21">
+    <row r="99" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B99" s="21">
         <v>3</v>
       </c>
-      <c r="C97" s="21" t="s">
+      <c r="C99" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="D97" s="25"/>
-      <c r="E97" s="21" t="s">
+      <c r="D99" s="25"/>
+      <c r="E99" s="21" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="98" spans="1:12" s="21" customFormat="1">
-      <c r="B98" s="21">
+    <row r="100" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B100" s="21">
         <v>4</v>
       </c>
-      <c r="C98" s="21" t="s">
+      <c r="C100" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="D98" s="26"/>
-      <c r="E98" s="21" t="s">
+      <c r="D100" s="26"/>
+      <c r="E100" s="21" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="99" spans="1:12" s="21" customFormat="1">
-      <c r="B99" s="21">
+    <row r="101" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B101" s="21">
         <v>5</v>
       </c>
-      <c r="C99" s="21" t="s">
+      <c r="C101" s="21" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="100" spans="1:12" s="21" customFormat="1">
-      <c r="B100" s="21">
+    <row r="102" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B102" s="21">
         <v>6</v>
       </c>
-      <c r="C100" s="21" t="s">
+      <c r="C102" s="21" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="101" spans="1:12" s="21" customFormat="1">
-      <c r="B101" s="21">
+    <row r="103" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B103" s="21">
         <v>7</v>
       </c>
-      <c r="C101" s="21" t="s">
+      <c r="C103" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="D101" s="24"/>
-      <c r="E101" s="21" t="s">
+      <c r="D103" s="24"/>
+      <c r="E103" s="21" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="102" spans="1:12" s="21" customFormat="1">
-      <c r="B102" s="21">
+    <row r="104" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B104" s="21">
         <v>8</v>
       </c>
-      <c r="C102" s="21" t="s">
+      <c r="C104" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="D102" s="27"/>
-      <c r="E102" s="21" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" s="21" customFormat="1">
-      <c r="B103" s="21">
-        <v>9</v>
-      </c>
-      <c r="C103" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="D103" s="28"/>
-      <c r="E103" s="21" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" s="21" customFormat="1">
-      <c r="B104" s="21">
-        <v>10</v>
-      </c>
-      <c r="C104" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="D104" s="29"/>
+      <c r="D104" s="27"/>
       <c r="E104" s="21" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="105" spans="1:12" s="21" customFormat="1">
+    <row r="105" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B105" s="21">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C105" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="D105" s="30"/>
+        <v>172</v>
+      </c>
+      <c r="D105" s="28"/>
       <c r="E105" s="21" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="106" spans="1:12" s="21" customFormat="1">
-      <c r="D106" s="31"/>
-    </row>
-    <row r="108" spans="1:12">
-      <c r="A108" s="17" t="s">
+    <row r="106" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B106" s="21">
+        <v>10</v>
+      </c>
+      <c r="C106" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="D106" s="29"/>
+      <c r="E106" s="21" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="109" spans="1:12">
-      <c r="B109" s="17" t="s">
+    <row r="107" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B107" s="21">
+        <v>11</v>
+      </c>
+      <c r="C107" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="D107" s="30"/>
+      <c r="E107" s="21" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D108" s="31"/>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A110" s="17" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B111" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C109" s="17" t="s">
+      <c r="C111" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="D109" s="17"/>
-      <c r="E109" s="17" t="s">
+      <c r="D111" s="17"/>
+      <c r="E111" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F109" s="17" t="s">
+      <c r="F111" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="G109" s="17"/>
-      <c r="H109" s="17" t="s">
+      <c r="G111" s="17"/>
+      <c r="H111" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="I109" s="17" t="s">
+      <c r="I111" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="J109" s="17"/>
-      <c r="K109" s="17" t="s">
+      <c r="J111" s="17"/>
+      <c r="K111" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="L109" s="17" t="s">
+      <c r="L111" s="17" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="110" spans="1:12">
-      <c r="B110">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B112">
         <v>1</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C112" t="s">
         <v>106</v>
       </c>
-      <c r="D110" s="11"/>
-      <c r="E110" t="s">
-        <v>26</v>
-      </c>
-      <c r="F110" t="s">
-        <v>125</v>
-      </c>
-      <c r="H110">
-        <v>28</v>
-      </c>
-      <c r="I110" t="s">
-        <v>114</v>
-      </c>
-      <c r="J110" s="5"/>
-      <c r="K110" t="s">
-        <v>140</v>
-      </c>
-      <c r="L110" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12">
-      <c r="B111">
-        <v>2</v>
-      </c>
-      <c r="C111" t="s">
-        <v>107</v>
-      </c>
-      <c r="D111" s="10"/>
-      <c r="E111" t="s">
-        <v>26</v>
-      </c>
-      <c r="F111" t="s">
-        <v>158</v>
-      </c>
-      <c r="H111">
-        <v>27</v>
-      </c>
-      <c r="I111" t="s">
-        <v>115</v>
-      </c>
-      <c r="J111" s="4"/>
-      <c r="K111" t="s">
-        <v>140</v>
-      </c>
-      <c r="L111" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12">
-      <c r="B112">
-        <v>3</v>
-      </c>
-      <c r="C112" t="s">
-        <v>108</v>
-      </c>
-      <c r="D112" s="7"/>
+      <c r="D112" s="11"/>
       <c r="E112" t="s">
         <v>26</v>
       </c>
       <c r="F112" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="H112">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I112" t="s">
-        <v>116</v>
-      </c>
-      <c r="J112" s="2"/>
+        <v>114</v>
+      </c>
+      <c r="J112" s="5"/>
       <c r="K112" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="L112" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B113">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C113" t="s">
-        <v>109</v>
-      </c>
-      <c r="D113" s="8"/>
+        <v>107</v>
+      </c>
+      <c r="D113" s="10"/>
       <c r="E113" t="s">
         <v>26</v>
       </c>
       <c r="F113" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H113">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I113" t="s">
-        <v>117</v>
-      </c>
-      <c r="J113" s="12"/>
+        <v>115</v>
+      </c>
+      <c r="J113" s="4"/>
       <c r="K113" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="L113" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B114">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C114" t="s">
-        <v>110</v>
-      </c>
-      <c r="D114" s="12"/>
+        <v>108</v>
+      </c>
+      <c r="D114" s="7"/>
       <c r="E114" t="s">
         <v>26</v>
       </c>
       <c r="F114" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H114">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I114" t="s">
-        <v>118</v>
-      </c>
-      <c r="J114" s="8"/>
+        <v>116</v>
+      </c>
+      <c r="J114" s="2"/>
       <c r="K114" t="s">
         <v>147</v>
       </c>
       <c r="L114" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B115">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C115" t="s">
-        <v>111</v>
-      </c>
-      <c r="D115" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="D115" s="8"/>
       <c r="E115" t="s">
         <v>26</v>
       </c>
       <c r="F115" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H115">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I115" t="s">
-        <v>119</v>
-      </c>
-      <c r="J115" s="7"/>
+        <v>117</v>
+      </c>
+      <c r="J115" s="12"/>
       <c r="K115" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="L115" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B116">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C116" t="s">
-        <v>112</v>
-      </c>
-      <c r="D116" s="4"/>
+        <v>110</v>
+      </c>
+      <c r="D116" s="12"/>
       <c r="E116" t="s">
         <v>26</v>
       </c>
       <c r="F116" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H116">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I116" t="s">
-        <v>120</v>
-      </c>
-      <c r="J116" s="10"/>
+        <v>118</v>
+      </c>
+      <c r="J116" s="8"/>
       <c r="K116" t="s">
-        <v>25</v>
+        <v>147</v>
       </c>
       <c r="L116" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B117">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C117" t="s">
-        <v>113</v>
-      </c>
-      <c r="D117" s="5"/>
+        <v>111</v>
+      </c>
+      <c r="D117" s="2"/>
       <c r="E117" t="s">
         <v>26</v>
       </c>
       <c r="F117" t="s">
+        <v>160</v>
+      </c>
+      <c r="H117">
+        <v>23</v>
+      </c>
+      <c r="I117" t="s">
+        <v>119</v>
+      </c>
+      <c r="J117" s="7"/>
+      <c r="K117" t="s">
+        <v>140</v>
+      </c>
+      <c r="L117" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B118">
+        <v>7</v>
+      </c>
+      <c r="C118" t="s">
+        <v>112</v>
+      </c>
+      <c r="D118" s="4"/>
+      <c r="E118" t="s">
+        <v>26</v>
+      </c>
+      <c r="F118" t="s">
+        <v>157</v>
+      </c>
+      <c r="H118">
+        <v>22</v>
+      </c>
+      <c r="I118" t="s">
+        <v>120</v>
+      </c>
+      <c r="J118" s="10"/>
+      <c r="K118" t="s">
+        <v>25</v>
+      </c>
+      <c r="L118" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B119">
+        <v>8</v>
+      </c>
+      <c r="C119" t="s">
+        <v>113</v>
+      </c>
+      <c r="D119" s="5"/>
+      <c r="E119" t="s">
+        <v>26</v>
+      </c>
+      <c r="F119" t="s">
         <v>126</v>
       </c>
-      <c r="H117">
+      <c r="H119">
         <v>21</v>
       </c>
-      <c r="I117" t="s">
+      <c r="I119" t="s">
         <v>121</v>
       </c>
-      <c r="J117" s="18"/>
-      <c r="K117" t="s">
+      <c r="J119" s="18"/>
+      <c r="K119" t="s">
         <v>25</v>
       </c>
-      <c r="L117" t="s">
+      <c r="L119" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="118" spans="1:12">
-      <c r="B118">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B120">
         <v>9</v>
       </c>
-      <c r="C118" s="14" t="s">
+      <c r="C120" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D118" s="5"/>
-      <c r="H118">
+      <c r="D120" s="5"/>
+      <c r="H120">
         <v>20</v>
       </c>
-      <c r="I118" t="s">
+      <c r="I120" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="119" spans="1:12">
-      <c r="B119">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B121">
         <v>10</v>
       </c>
-      <c r="C119" s="14" t="s">
+      <c r="C121" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="D119" s="15"/>
-      <c r="H119">
+      <c r="D121" s="15"/>
+      <c r="H121">
         <v>19</v>
       </c>
-      <c r="I119" t="s">
+      <c r="I121" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="120" spans="1:12">
-      <c r="B120">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B122">
         <v>11</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C122" t="s">
         <v>48</v>
       </c>
-      <c r="D120" s="18"/>
-      <c r="E120" t="s">
-        <v>127</v>
-      </c>
-      <c r="F120" t="s">
-        <v>48</v>
-      </c>
-      <c r="H120">
-        <v>18</v>
-      </c>
-      <c r="I120" t="s">
-        <v>32</v>
-      </c>
-      <c r="J120" s="12"/>
-      <c r="K120" t="s">
-        <v>127</v>
-      </c>
-      <c r="L120" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12">
-      <c r="B121">
-        <v>12</v>
-      </c>
-      <c r="C121" t="s">
-        <v>29</v>
-      </c>
-      <c r="D121" s="10"/>
-      <c r="E121" t="s">
-        <v>127</v>
-      </c>
-      <c r="F121" t="s">
-        <v>29</v>
-      </c>
-      <c r="H121">
-        <v>17</v>
-      </c>
-      <c r="I121" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12">
-      <c r="B122">
-        <v>13</v>
-      </c>
-      <c r="C122" t="s">
-        <v>123</v>
-      </c>
-      <c r="D122" s="7"/>
+      <c r="D122" s="18"/>
       <c r="E122" t="s">
         <v>127</v>
       </c>
       <c r="F122" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H122">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I122" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12">
+        <v>32</v>
+      </c>
+      <c r="J122" s="12"/>
+      <c r="K122" t="s">
+        <v>127</v>
+      </c>
+      <c r="L122" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B123">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C123" t="s">
-        <v>124</v>
-      </c>
-      <c r="D123" s="8"/>
+        <v>29</v>
+      </c>
+      <c r="D123" s="10"/>
       <c r="E123" t="s">
         <v>127</v>
       </c>
       <c r="F123" t="s">
+        <v>29</v>
+      </c>
+      <c r="H123">
+        <v>17</v>
+      </c>
+      <c r="I123" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B124">
+        <v>13</v>
+      </c>
+      <c r="C124" t="s">
+        <v>123</v>
+      </c>
+      <c r="D124" s="7"/>
+      <c r="E124" t="s">
+        <v>127</v>
+      </c>
+      <c r="F124" t="s">
+        <v>30</v>
+      </c>
+      <c r="H124">
+        <v>16</v>
+      </c>
+      <c r="I124" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B125">
+        <v>14</v>
+      </c>
+      <c r="C125" t="s">
+        <v>124</v>
+      </c>
+      <c r="D125" s="8"/>
+      <c r="E125" t="s">
+        <v>127</v>
+      </c>
+      <c r="F125" t="s">
         <v>47</v>
       </c>
-      <c r="H123">
+      <c r="H125">
         <v>15</v>
       </c>
-      <c r="I123" t="s">
+      <c r="I125" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="125" spans="1:12">
-      <c r="A125" s="17" t="s">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A127" s="17" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="126" spans="1:12">
-      <c r="B126" s="17" t="s">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B128" s="17" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="127" spans="1:12">
-      <c r="B127" s="17" t="s">
+    <row r="129" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B129" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C127" s="17" t="s">
+      <c r="C129" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="D127" s="17"/>
-      <c r="E127" s="17" t="s">
+      <c r="D129" s="17"/>
+      <c r="E129" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F127" s="17" t="s">
+      <c r="F129" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="G127" s="17"/>
-    </row>
-    <row r="128" spans="1:12">
-      <c r="B128">
+      <c r="G129" s="17"/>
+    </row>
+    <row r="130" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B130">
         <v>1</v>
       </c>
-      <c r="C128" s="36"/>
-      <c r="D128" s="3"/>
-      <c r="E128" t="s">
-        <v>127</v>
-      </c>
-      <c r="F128" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="129" spans="2:12">
-      <c r="B129">
-        <v>2</v>
-      </c>
-      <c r="D129" s="2"/>
-      <c r="E129" t="s">
-        <v>127</v>
-      </c>
-      <c r="F129" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="130" spans="2:12">
-      <c r="B130">
-        <v>3</v>
-      </c>
-      <c r="D130" s="4"/>
+      <c r="C130" s="36"/>
+      <c r="D130" s="3"/>
       <c r="E130" t="s">
         <v>127</v>
       </c>
       <c r="F130" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="131" spans="2:12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B131">
-        <v>4</v>
-      </c>
-      <c r="D131" s="8"/>
+        <v>2</v>
+      </c>
+      <c r="D131" s="2"/>
       <c r="E131" t="s">
         <v>127</v>
       </c>
       <c r="F131" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="132" spans="2:12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="132" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B132">
-        <v>5</v>
-      </c>
-      <c r="D132" s="12"/>
+        <v>3</v>
+      </c>
+      <c r="D132" s="4"/>
       <c r="E132" t="s">
         <v>127</v>
       </c>
       <c r="F132" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="133" spans="2:12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="133" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B133">
-        <v>6</v>
-      </c>
-      <c r="D133" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="D133" s="8"/>
       <c r="E133" t="s">
         <v>127</v>
       </c>
       <c r="F133" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="134" spans="2:12">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="134" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B134">
-        <v>7</v>
-      </c>
-      <c r="D134" s="10"/>
+        <v>5</v>
+      </c>
+      <c r="D134" s="12"/>
       <c r="E134" t="s">
         <v>127</v>
       </c>
       <c r="F134" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="135" spans="2:12">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="135" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B135">
-        <v>8</v>
-      </c>
-      <c r="D135" s="8"/>
+        <v>6</v>
+      </c>
+      <c r="D135" s="7"/>
       <c r="E135" t="s">
         <v>127</v>
       </c>
       <c r="F135" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="136" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B136">
+        <v>7</v>
+      </c>
+      <c r="D136" s="10"/>
+      <c r="E136" t="s">
+        <v>127</v>
+      </c>
+      <c r="F136" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="137" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B137">
+        <v>8</v>
+      </c>
+      <c r="D137" s="8"/>
+      <c r="E137" t="s">
+        <v>127</v>
+      </c>
+      <c r="F137" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="136" spans="2:12">
-      <c r="B136" s="17"/>
-    </row>
-    <row r="137" spans="2:12">
-      <c r="B137" s="17" t="s">
+    <row r="138" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B138" s="17"/>
+    </row>
+    <row r="139" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B139" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="C137" s="17"/>
-      <c r="D137" s="17"/>
-      <c r="E137" s="17"/>
-      <c r="F137" s="17"/>
-      <c r="G137" s="17"/>
-      <c r="H137" s="17"/>
-      <c r="I137" s="17"/>
-      <c r="J137" s="17"/>
-      <c r="K137" s="17"/>
-      <c r="L137" s="17"/>
-    </row>
-    <row r="138" spans="2:12">
-      <c r="B138" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="C138" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="D138" s="17"/>
-      <c r="E138" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="F138" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="G138" s="17"/>
-      <c r="H138" s="17"/>
-      <c r="I138" s="17"/>
-      <c r="J138" s="17"/>
-      <c r="K138" s="17"/>
-      <c r="L138" s="17"/>
-    </row>
-    <row r="139" spans="2:12">
-      <c r="B139">
-        <v>1</v>
-      </c>
-      <c r="C139" s="14"/>
-      <c r="D139" s="3"/>
-      <c r="E139" t="s">
-        <v>133</v>
-      </c>
-      <c r="F139" t="s">
-        <v>10</v>
-      </c>
+      <c r="C139" s="17"/>
+      <c r="D139" s="17"/>
+      <c r="E139" s="17"/>
+      <c r="F139" s="17"/>
       <c r="G139" s="17"/>
       <c r="H139" s="17"/>
       <c r="I139" s="17"/>
@@ -3886,16 +3907,19 @@
       <c r="K139" s="17"/>
       <c r="L139" s="17"/>
     </row>
-    <row r="140" spans="2:12">
-      <c r="B140">
+    <row r="140" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B140" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D140" s="2"/>
-      <c r="E140" t="s">
-        <v>133</v>
-      </c>
-      <c r="F140" t="s">
-        <v>29</v>
+      <c r="C140" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D140" s="17"/>
+      <c r="E140" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F140" s="17" t="s">
+        <v>37</v>
       </c>
       <c r="G140" s="17"/>
       <c r="H140" s="17"/>
@@ -3904,16 +3928,17 @@
       <c r="K140" s="17"/>
       <c r="L140" s="17"/>
     </row>
-    <row r="141" spans="2:12">
+    <row r="141" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B141">
-        <v>3</v>
-      </c>
-      <c r="D141" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="C141" s="14"/>
+      <c r="D141" s="3"/>
       <c r="E141" t="s">
         <v>133</v>
       </c>
       <c r="F141" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G141" s="17"/>
       <c r="H141" s="17"/>
@@ -3922,16 +3947,16 @@
       <c r="K141" s="17"/>
       <c r="L141" s="17"/>
     </row>
-    <row r="142" spans="2:12">
+    <row r="142" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B142">
-        <v>4</v>
-      </c>
-      <c r="D142" s="20"/>
+        <v>2</v>
+      </c>
+      <c r="D142" s="2"/>
       <c r="E142" t="s">
         <v>133</v>
       </c>
       <c r="F142" t="s">
-        <v>97</v>
+        <v>29</v>
       </c>
       <c r="G142" s="17"/>
       <c r="H142" s="17"/>
@@ -3940,16 +3965,16 @@
       <c r="K142" s="17"/>
       <c r="L142" s="17"/>
     </row>
-    <row r="143" spans="2:12">
+    <row r="143" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B143">
-        <v>5</v>
-      </c>
-      <c r="D143" s="13"/>
+        <v>3</v>
+      </c>
+      <c r="D143" s="4"/>
       <c r="E143" t="s">
-        <v>13</v>
+        <v>133</v>
       </c>
       <c r="F143" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G143" s="17"/>
       <c r="H143" s="17"/>
@@ -3958,16 +3983,16 @@
       <c r="K143" s="17"/>
       <c r="L143" s="17"/>
     </row>
-    <row r="144" spans="2:12">
+    <row r="144" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B144">
-        <v>6</v>
-      </c>
-      <c r="D144" s="13"/>
+        <v>4</v>
+      </c>
+      <c r="D144" s="20"/>
       <c r="E144" t="s">
-        <v>13</v>
+        <v>133</v>
       </c>
       <c r="F144" t="s">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="G144" s="17"/>
       <c r="H144" s="17"/>
@@ -3976,9 +4001,9 @@
       <c r="K144" s="17"/>
       <c r="L144" s="17"/>
     </row>
-    <row r="145" spans="2:12">
+    <row r="145" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B145">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D145" s="13"/>
       <c r="E145" t="s">
@@ -3994,66 +4019,62 @@
       <c r="K145" s="17"/>
       <c r="L145" s="17"/>
     </row>
-    <row r="146" spans="2:12">
+    <row r="146" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B146">
+        <v>6</v>
+      </c>
+      <c r="D146" s="13"/>
+      <c r="E146" t="s">
+        <v>13</v>
+      </c>
+      <c r="F146" t="s">
+        <v>13</v>
+      </c>
+      <c r="G146" s="17"/>
+      <c r="H146" s="17"/>
+      <c r="I146" s="17"/>
+      <c r="J146" s="17"/>
+      <c r="K146" s="17"/>
+      <c r="L146" s="17"/>
+    </row>
+    <row r="147" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B147">
+        <v>7</v>
+      </c>
+      <c r="D147" s="13"/>
+      <c r="E147" t="s">
+        <v>13</v>
+      </c>
+      <c r="F147" t="s">
+        <v>13</v>
+      </c>
+      <c r="G147" s="17"/>
+      <c r="H147" s="17"/>
+      <c r="I147" s="17"/>
+      <c r="J147" s="17"/>
+      <c r="K147" s="17"/>
+      <c r="L147" s="17"/>
+    </row>
+    <row r="148" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B148">
         <v>8</v>
       </c>
-      <c r="D146" s="8"/>
-      <c r="E146" t="s">
+      <c r="D148" s="8"/>
+      <c r="E148" t="s">
         <v>133</v>
       </c>
-      <c r="F146" t="s">
+      <c r="F148" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="148" spans="2:12">
-      <c r="B148" s="17" t="s">
+    <row r="150" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B150" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="C148" s="17"/>
-      <c r="D148" s="17"/>
-      <c r="E148" s="17"/>
-      <c r="F148" s="17"/>
-      <c r="G148" s="17"/>
-      <c r="H148" s="17"/>
-      <c r="I148" s="17"/>
-      <c r="J148" s="17"/>
-      <c r="K148" s="17"/>
-      <c r="L148" s="17"/>
-    </row>
-    <row r="149" spans="2:12">
-      <c r="B149" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="C149" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="D149" s="17"/>
-      <c r="E149" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="F149" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="G149" s="17"/>
-      <c r="H149" s="17"/>
-      <c r="I149" s="17"/>
-      <c r="J149" s="17"/>
-      <c r="K149" s="17"/>
-      <c r="L149" s="17"/>
-    </row>
-    <row r="150" spans="2:12">
-      <c r="B150">
-        <v>1</v>
-      </c>
-      <c r="C150" s="14"/>
-      <c r="D150" s="3"/>
-      <c r="E150" t="s">
-        <v>137</v>
-      </c>
-      <c r="F150" t="s">
-        <v>10</v>
-      </c>
+      <c r="C150" s="17"/>
+      <c r="D150" s="17"/>
+      <c r="E150" s="17"/>
+      <c r="F150" s="17"/>
       <c r="G150" s="17"/>
       <c r="H150" s="17"/>
       <c r="I150" s="17"/>
@@ -4061,16 +4082,19 @@
       <c r="K150" s="17"/>
       <c r="L150" s="17"/>
     </row>
-    <row r="151" spans="2:12">
-      <c r="B151">
+    <row r="151" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B151" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D151" s="2"/>
-      <c r="E151" t="s">
-        <v>137</v>
-      </c>
-      <c r="F151" t="s">
-        <v>29</v>
+      <c r="C151" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D151" s="17"/>
+      <c r="E151" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F151" s="17" t="s">
+        <v>37</v>
       </c>
       <c r="G151" s="17"/>
       <c r="H151" s="17"/>
@@ -4079,16 +4103,17 @@
       <c r="K151" s="17"/>
       <c r="L151" s="17"/>
     </row>
-    <row r="152" spans="2:12">
+    <row r="152" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B152">
-        <v>3</v>
-      </c>
-      <c r="D152" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="C152" s="14"/>
+      <c r="D152" s="3"/>
       <c r="E152" t="s">
         <v>137</v>
       </c>
       <c r="F152" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G152" s="17"/>
       <c r="H152" s="17"/>
@@ -4097,13 +4122,16 @@
       <c r="K152" s="17"/>
       <c r="L152" s="17"/>
     </row>
-    <row r="153" spans="2:12">
+    <row r="153" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B153">
-        <v>4</v>
-      </c>
-      <c r="D153" s="13"/>
+        <v>2</v>
+      </c>
+      <c r="D153" s="2"/>
       <c r="E153" t="s">
-        <v>13</v>
+        <v>137</v>
+      </c>
+      <c r="F153" t="s">
+        <v>29</v>
       </c>
       <c r="G153" s="17"/>
       <c r="H153" s="17"/>
@@ -4112,16 +4140,16 @@
       <c r="K153" s="17"/>
       <c r="L153" s="17"/>
     </row>
-    <row r="154" spans="2:12">
+    <row r="154" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B154">
-        <v>5</v>
-      </c>
-      <c r="D154" s="20"/>
+        <v>3</v>
+      </c>
+      <c r="D154" s="4"/>
       <c r="E154" t="s">
         <v>137</v>
       </c>
       <c r="F154" t="s">
-        <v>96</v>
+        <v>30</v>
       </c>
       <c r="G154" s="17"/>
       <c r="H154" s="17"/>
@@ -4130,15 +4158,12 @@
       <c r="K154" s="17"/>
       <c r="L154" s="17"/>
     </row>
-    <row r="155" spans="2:12">
+    <row r="155" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B155">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D155" s="13"/>
       <c r="E155" t="s">
-        <v>13</v>
-      </c>
-      <c r="F155" t="s">
         <v>13</v>
       </c>
       <c r="G155" s="17"/>
@@ -4148,16 +4173,16 @@
       <c r="K155" s="17"/>
       <c r="L155" s="17"/>
     </row>
-    <row r="156" spans="2:12">
+    <row r="156" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B156">
-        <v>7</v>
-      </c>
-      <c r="D156" s="13"/>
+        <v>5</v>
+      </c>
+      <c r="D156" s="20"/>
       <c r="E156" t="s">
-        <v>13</v>
+        <v>137</v>
       </c>
       <c r="F156" t="s">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="G156" s="17"/>
       <c r="H156" s="17"/>
@@ -4166,65 +4191,61 @@
       <c r="K156" s="17"/>
       <c r="L156" s="17"/>
     </row>
-    <row r="157" spans="2:12">
+    <row r="157" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B157">
+        <v>6</v>
+      </c>
+      <c r="D157" s="13"/>
+      <c r="E157" t="s">
+        <v>13</v>
+      </c>
+      <c r="F157" t="s">
+        <v>13</v>
+      </c>
+      <c r="G157" s="17"/>
+      <c r="H157" s="17"/>
+      <c r="I157" s="17"/>
+      <c r="J157" s="17"/>
+      <c r="K157" s="17"/>
+      <c r="L157" s="17"/>
+    </row>
+    <row r="158" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B158">
+        <v>7</v>
+      </c>
+      <c r="D158" s="13"/>
+      <c r="E158" t="s">
+        <v>13</v>
+      </c>
+      <c r="F158" t="s">
+        <v>13</v>
+      </c>
+      <c r="G158" s="17"/>
+      <c r="H158" s="17"/>
+      <c r="I158" s="17"/>
+      <c r="J158" s="17"/>
+      <c r="K158" s="17"/>
+      <c r="L158" s="17"/>
+    </row>
+    <row r="159" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B159">
         <v>8</v>
       </c>
-      <c r="E157" t="s">
+      <c r="E159" t="s">
         <v>162</v>
       </c>
-      <c r="F157" t="s">
+      <c r="F159" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="159" spans="2:12">
-      <c r="B159" s="17" t="s">
+    <row r="161" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B161" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="C159" s="17"/>
-      <c r="D159" s="17"/>
-      <c r="E159" s="17"/>
-      <c r="F159" s="17"/>
-      <c r="G159" s="17"/>
-      <c r="H159" s="17"/>
-      <c r="I159" s="17"/>
-      <c r="J159" s="17"/>
-      <c r="K159" s="17"/>
-      <c r="L159" s="17"/>
-    </row>
-    <row r="160" spans="2:12">
-      <c r="B160" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="C160" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="D160" s="17"/>
-      <c r="E160" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="F160" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="G160" s="17"/>
-      <c r="H160" s="17"/>
-      <c r="I160" s="17"/>
-      <c r="J160" s="17"/>
-      <c r="K160" s="17"/>
-      <c r="L160" s="17"/>
-    </row>
-    <row r="161" spans="2:12">
-      <c r="B161">
-        <v>1</v>
-      </c>
-      <c r="C161" s="14"/>
-      <c r="D161" s="3"/>
-      <c r="E161" t="s">
-        <v>139</v>
-      </c>
-      <c r="F161" t="s">
-        <v>10</v>
-      </c>
+      <c r="C161" s="17"/>
+      <c r="D161" s="17"/>
+      <c r="E161" s="17"/>
+      <c r="F161" s="17"/>
       <c r="G161" s="17"/>
       <c r="H161" s="17"/>
       <c r="I161" s="17"/>
@@ -4232,16 +4253,19 @@
       <c r="K161" s="17"/>
       <c r="L161" s="17"/>
     </row>
-    <row r="162" spans="2:12">
-      <c r="B162">
+    <row r="162" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B162" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D162" s="2"/>
-      <c r="E162" t="s">
-        <v>139</v>
-      </c>
-      <c r="F162" t="s">
-        <v>29</v>
+      <c r="C162" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D162" s="17"/>
+      <c r="E162" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F162" s="17" t="s">
+        <v>37</v>
       </c>
       <c r="G162" s="17"/>
       <c r="H162" s="17"/>
@@ -4250,16 +4274,17 @@
       <c r="K162" s="17"/>
       <c r="L162" s="17"/>
     </row>
-    <row r="163" spans="2:12">
+    <row r="163" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B163">
-        <v>3</v>
-      </c>
-      <c r="D163" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="C163" s="14"/>
+      <c r="D163" s="3"/>
       <c r="E163" t="s">
         <v>139</v>
       </c>
       <c r="F163" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G163" s="17"/>
       <c r="H163" s="17"/>
@@ -4268,13 +4293,16 @@
       <c r="K163" s="17"/>
       <c r="L163" s="17"/>
     </row>
-    <row r="164" spans="2:12">
+    <row r="164" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B164">
-        <v>4</v>
-      </c>
-      <c r="D164" s="13"/>
+        <v>2</v>
+      </c>
+      <c r="D164" s="2"/>
       <c r="E164" t="s">
-        <v>13</v>
+        <v>139</v>
+      </c>
+      <c r="F164" t="s">
+        <v>29</v>
       </c>
       <c r="G164" s="17"/>
       <c r="H164" s="17"/>
@@ -4283,13 +4311,16 @@
       <c r="K164" s="17"/>
       <c r="L164" s="17"/>
     </row>
-    <row r="165" spans="2:12">
+    <row r="165" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B165">
-        <v>5</v>
-      </c>
-      <c r="D165" s="13"/>
+        <v>3</v>
+      </c>
+      <c r="D165" s="4"/>
       <c r="E165" t="s">
-        <v>13</v>
+        <v>139</v>
+      </c>
+      <c r="F165" t="s">
+        <v>30</v>
       </c>
       <c r="G165" s="17"/>
       <c r="H165" s="17"/>
@@ -4298,16 +4329,13 @@
       <c r="K165" s="17"/>
       <c r="L165" s="17"/>
     </row>
-    <row r="166" spans="2:12">
+    <row r="166" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B166">
-        <v>6</v>
-      </c>
-      <c r="D166" s="20"/>
+        <v>4</v>
+      </c>
+      <c r="D166" s="13"/>
       <c r="E166" t="s">
-        <v>139</v>
-      </c>
-      <c r="F166" t="s">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="G166" s="17"/>
       <c r="H166" s="17"/>
@@ -4316,16 +4344,13 @@
       <c r="K166" s="17"/>
       <c r="L166" s="17"/>
     </row>
-    <row r="167" spans="2:12">
+    <row r="167" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B167">
-        <v>7</v>
-      </c>
-      <c r="D167" s="10"/>
+        <v>5</v>
+      </c>
+      <c r="D167" s="13"/>
       <c r="E167" t="s">
-        <v>139</v>
-      </c>
-      <c r="F167" t="s">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="G167" s="17"/>
       <c r="H167" s="17"/>
@@ -4334,21 +4359,57 @@
       <c r="K167" s="17"/>
       <c r="L167" s="17"/>
     </row>
-    <row r="168" spans="2:12">
+    <row r="168" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B168">
+        <v>6</v>
+      </c>
+      <c r="D168" s="20"/>
+      <c r="E168" t="s">
+        <v>139</v>
+      </c>
+      <c r="F168" t="s">
+        <v>98</v>
+      </c>
+      <c r="G168" s="17"/>
+      <c r="H168" s="17"/>
+      <c r="I168" s="17"/>
+      <c r="J168" s="17"/>
+      <c r="K168" s="17"/>
+      <c r="L168" s="17"/>
+    </row>
+    <row r="169" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B169">
+        <v>7</v>
+      </c>
+      <c r="D169" s="10"/>
+      <c r="E169" t="s">
+        <v>139</v>
+      </c>
+      <c r="F169" t="s">
+        <v>99</v>
+      </c>
+      <c r="G169" s="17"/>
+      <c r="H169" s="17"/>
+      <c r="I169" s="17"/>
+      <c r="J169" s="17"/>
+      <c r="K169" s="17"/>
+      <c r="L169" s="17"/>
+    </row>
+    <row r="170" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B170">
         <v>8</v>
       </c>
-      <c r="E168" t="s">
+      <c r="E170" t="s">
         <v>162</v>
       </c>
-      <c r="F168" t="s">
+      <c r="F170" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="170" spans="2:12">
-      <c r="B170" s="13"/>
-      <c r="C170" s="14"/>
-      <c r="D170" t="s">
+    <row r="172" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B172" s="13"/>
+      <c r="C172" s="14"/>
+      <c r="D172" t="s">
         <v>90</v>
       </c>
     </row>
@@ -4358,18 +4419,18 @@
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="70" fitToHeight="2" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="106" max="16383" man="1"/>
+    <brk id="108" max="16383" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4377,12 +4438,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
